--- a/test/test_data/card_testv2.xlsx
+++ b/test/test_data/card_testv2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thib/Documents/Websites/everlearn/test/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB60059E-3CE1-364B-9560-B4AE40DFA7CB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DE71DC-974D-2944-AFC7-71C3F49878D7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -618,7 +618,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
